--- a/KetQuaTest_OrderService.xlsx
+++ b/KetQuaTest_OrderService.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -35,41 +35,118 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>ORD_SVC_11</t>
+  </si>
+  <si>
+    <t>Chi tiết bị xóa (Null Variant)</t>
+  </si>
+  <si>
+    <t>Variant=null</t>
+  </si>
+  <si>
+    <t>Variant ID không tồn tại</t>
+  </si>
+  <si>
+    <t>Name='SP không tồn tại'</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>ORD_SVC_10</t>
+  </si>
+  <si>
+    <t>Lấy chi tiết đầy đủ</t>
+  </si>
+  <si>
+    <t>Order has 1 item</t>
+  </si>
+  <si>
+    <t>1. Get Details
+2. Get Variant &amp; Product
+3. Map Size</t>
+  </si>
+  <si>
+    <t>Return List Map</t>
+  </si>
+  <si>
+    <t>ORD_SVC_09</t>
+  </si>
+  <si>
+    <t>Lấy đơn hàng bảo mật</t>
+  </si>
+  <si>
+    <t>OID=10, UID=1</t>
+  </si>
+  <si>
+    <t>Call DAO getOrderByIdAndUserId</t>
+  </si>
+  <si>
+    <t>Return Order</t>
+  </si>
+  <si>
     <t>ORD_SVC_04</t>
   </si>
   <si>
     <t>Chưa đăng nhập</t>
   </si>
   <si>
+    <t>User=null</t>
+  </si>
+  <si>
     <t>User = null</t>
   </si>
   <si>
-    <t>User=null</t>
-  </si>
-  <si>
     <t>Result = NOT_LOGGED_IN</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>ORD_SVC_08</t>
+  </si>
+  <si>
+    <t>Lấy DS đơn của User</t>
+  </si>
+  <si>
+    <t>UserID=1</t>
+  </si>
+  <si>
+    <t>Call DAO getOrdersByUserId</t>
+  </si>
+  <si>
+    <t>Return List</t>
   </si>
   <si>
     <t>ORD_SVC_02</t>
   </si>
   <si>
     <t>Lỗi chi tiết -&gt; Rollback</t>
+  </si>
+  <si>
+    <t>Cart: 1 item</t>
   </si>
   <si>
     <t>1. Order OK
 2. Detail FAIL</t>
   </si>
   <si>
-    <t>Cart: 1 item</t>
-  </si>
-  <si>
-    <t>Result = DETAIL_FAILED &amp; rollback</t>
+    <t>Result = DETAIL_FAILED &amp; Rollback</t>
+  </si>
+  <si>
+    <t>ORD_SVC_07</t>
+  </si>
+  <si>
+    <t>Lỗi Exception (DB Crash)</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Throw RuntimeException</t>
+  </si>
+  <si>
+    <t>Result = EXCEPTION &amp; Rollback</t>
   </si>
   <si>
     <t>ORD_SVC_03</t>
@@ -78,10 +155,10 @@
     <t>Giỏ hàng rỗng</t>
   </si>
   <si>
+    <t>Cart = []</t>
+  </si>
+  <si>
     <t>Cart empty</t>
-  </si>
-  <si>
-    <t>Cart = []</t>
   </si>
   <si>
     <t>Result = EMPTY_CART</t>
@@ -99,6 +176,36 @@
   </si>
   <si>
     <t>Result = SUCCESS</t>
+  </si>
+  <si>
+    <t>ORD_SVC_06</t>
+  </si>
+  <si>
+    <t>Lỗi lưu Order chính</t>
+  </si>
+  <si>
+    <t>DAO Fail</t>
+  </si>
+  <si>
+    <t>OrderDao return -1</t>
+  </si>
+  <si>
+    <t>Result = ORDER_FAILED &amp; Rollback</t>
+  </si>
+  <si>
+    <t>ORD_SVC_05</t>
+  </si>
+  <si>
+    <t>Thiếu địa chỉ/SĐT</t>
+  </si>
+  <si>
+    <t>Addr='', Phone=''</t>
+  </si>
+  <si>
+    <t>Address/Phone rỗng</t>
+  </si>
+  <si>
+    <t>Result = MISSING_INFO</t>
   </si>
 </sst>
 </file>
@@ -176,17 +283,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.89453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.6328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.5625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="30.79296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="32.234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -294,15 +401,176 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>13</v>
       </c>
     </row>
